--- a/test/functional/xlsx_files/image02.xlsx
+++ b/test/functional/xlsx_files/image02.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
